--- a/data/labeled_claims/population_growth_rate_claims.xlsx
+++ b/data/labeled_claims/population_growth_rate_claims.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10133" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10134" uniqueCount="227">
   <si>
     <t>Albania compared to other CountriesThe Population Growth of Albania is similar to that of St. Lucia , Lesotho , Malta , Barbados , Italy , El Salvador , Uruguay , Dominica , Denmark , Macedonia with a respective Population Growth of 0.35 , 0.34 , 0.33 , 0.33 , 0.30 , 0.27 , 0.26 , 0.22 , 0.22 , 0.21 -LRB- % -RRB- and a global rank of 160 , 161 , 162 , 163 , 164 , 166 , 167 , 168 , 169 , 170 .</t>
   </si>
@@ -706,6 +706,9 @@
   <si>
     <t>extracted_value</t>
   </si>
+  <si>
+    <t>sentence</t>
+  </si>
 </sst>
 </file>
 
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:L1461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,6 +1121,9 @@
       <c r="B1" t="s">
         <v>221</v>
       </c>
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
       <c r="D1" t="s">
         <v>222</v>
       </c>

--- a/data/labeled_claims/population_growth_rate_claims.xlsx
+++ b/data/labeled_claims/population_growth_rate_claims.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10134" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10135" uniqueCount="228">
   <si>
     <t>Albania compared to other CountriesThe Population Growth of Albania is similar to that of St. Lucia , Lesotho , Malta , Barbados , Italy , El Salvador , Uruguay , Dominica , Denmark , Macedonia with a respective Population Growth of 0.35 , 0.34 , 0.33 , 0.33 , 0.30 , 0.27 , 0.26 , 0.22 , 0.22 , 0.21 -LRB- % -RRB- and a global rank of 160 , 161 , 162 , 163 , 164 , 166 , 167 , 168 , 169 , 170 .</t>
   </si>
@@ -709,6 +709,9 @@
   <si>
     <t>sentence</t>
   </si>
+  <si>
+    <t>dep</t>
+  </si>
 </sst>
 </file>
 
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:L1461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,6 +1136,9 @@
       <c r="G1" t="s">
         <v>224</v>
       </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
       <c r="J1" t="s">
         <v>225</v>
       </c>
